--- a/biology/Botanique/Roseraie_Untergiesing_de_Munich/Roseraie_Untergiesing_de_Munich.xlsx
+++ b/biology/Botanique/Roseraie_Untergiesing_de_Munich/Roseraie_Untergiesing_de_Munich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Roseraie Untergiesing de Munich (en allemand: Rosengarten Untergiesing, München) est une roseraie de 12,5 hectares située à Munich, en Bavière.
 Elle est ouverte quotidiennement au public.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette roseraie est un des jardins consacrés aux roses parmi les plus grands de Bavière et d'Allemagne. 
 Fondée en 1969, elle a été dessinée par les paysagistes Berthold Thormählen, Mathias Tantau et Wilhelm Kordes. 
@@ -544,7 +558,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La roseraie compte actuellement plus de 35.000 roses et 1.020 variétés de roses, représentant toutes les sortes de couleurs et de parfums.
 </t>
@@ -575,7 +591,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosengarten Untergiesing München, SachsenstraßEt D-81543 Untergiesing München-Munich, Bayern-Bavière, Deutschland-Allemagne
  Portail des roses et rosiers   Portail de Munich                    </t>
